--- a/Dataset/Folds/Fold_3/Excel/25.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/25.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="339">
   <si>
     <t>Doi</t>
   </si>
@@ -1034,6 +1034,118 @@
   </si>
   <si>
     <t>[Hyungoo%Shin%NULL%1,                          Jaehoon%Oh%NULL%1,                          Tae Ho%Lim%NULL%1,                          Hyunggoo%Kang%NULL%1,                          Yeongtak%Song%NULL%1,                          Sanghyun%Lee%NULL%1,                          Abdelouahab%Bellou.%NULL%2,                          Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                           Philippe%Bidet%NULL%1,                           Gérard%Lina%NULL%1,                           Mostapha%Mokhtari%NULL%1,                           Marie-Claude%André%NULL%1,                           Dominique%Gendrel%NULL%1,                           Edouard%Bingen%NULL%1,                           Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                           Mi-Yeon%Yeon%NULL%0,                           Mi-Yeon%Yeon%NULL%0,                           Jung Wan%Park%NULL%0,                           Jung Wan%Park%NULL%0,                           Jee-Young%Hong%NULL%2,                           Jee-Young%Hong%NULL%0,                           Ji Woong%Son%NULL%2,                           Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                           Mona%Loutfy%NULL%1,                           L. Clifford%McDonald%NULL%2,                           Kenneth F.%Martinez%NULL%1,                           Mariana%Ofner%NULL%1,                           Tom%Wong%NULL%1,                           Tamara%Wallington%NULL%1,                           Wayne L.%Gold%NULL%1,                           Barbara%Mederski%NULL%1,                           Karen%Green%NULL%3,                           Donald E.%Low%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Fang%Tang%NULL%1,                           Li‐Qun%Fang%NULL%1,                           Sake J.%De Vlas%NULL%1,                           Huai‐Jian%Ma%NULL%1,                           Jie‐Ping%Zhou%NULL%1,                           Caspar W. N.%Looman%NULL%1,                           Jan Hendrik%Richardus%NULL%1,                           Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                           Allison%McGeer%NULL%2,                           Bonnie%Henry%NULL%2,                           Marianna%Ofner%NULL%2,                           David%Rose%NULL%1,                           Tammy%Hlywka%NULL%1,                           Joanne%Levie%NULL%1,                           Jane%McQueen%NULL%1,                           Stephanie%Smith%NULL%1,                           Lorraine%Moss%NULL%1,                           Andrew%Smith%NULL%1,                           Karen%Green%NULL%0,                           Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                           Altynay%Shigayeva%NULL%1,                           Allison%McGeer%NULL%0,                           Erika%Bontovics%NULL%1,                           Martin%Chapman%NULL%1,                           Denise%Gravel%NULL%1,                           Bonnie%Henry%NULL%0,                           Stephen%Lapinsky%NULL%1,                           Mark%Loeb%NULL%1,                           L. Clifford%McDonald%NULL%0,                           Marianna%Ofner%NULL%0,                           Shirley%Paton%NULL%1,                           Donna%Reynolds%NULL%1,                           Damon%Scales%NULL%1,                           Sandy%Shen%NULL%1,                           Andrew%Simor%NULL%1,                           Thomas%Stewart%NULL%1,                           Mary%Vearncombe%NULL%1,                           Dick%Zoutman%NULL%1,                           Karen%Green%NULL%0,                           Joel Mark%Montgomery%NULL%4,                           Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                           Jaehoon%Oh%NULL%1,                           Tae Ho%Lim%NULL%1,                           Hyunggoo%Kang%NULL%1,                           Yeongtak%Song%NULL%1,                           Sanghyun%Lee%NULL%1,                           Abdelouahab%Bellou.%NULL%2,                           Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%1,                            Philippe%Bidet%NULL%1,                            Gérard%Lina%NULL%1,                            Mostapha%Mokhtari%NULL%1,                            Marie-Claude%André%NULL%1,                            Dominique%Gendrel%NULL%1,                            Edouard%Bingen%NULL%1,                            Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0,                            Mi-Yeon%Yeon%NULL%0,                            Mi-Yeon%Yeon%NULL%0,                            Jung Wan%Park%NULL%0,                            Jung Wan%Park%NULL%0,                            Jee-Young%Hong%NULL%2,                            Jee-Young%Hong%NULL%0,                            Ji Woong%Son%NULL%2,                            Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%1,                            Mona%Loutfy%NULL%1,                            L. Clifford%McDonald%NULL%2,                            Kenneth F.%Martinez%NULL%1,                            Mariana%Ofner%NULL%1,                            Tom%Wong%NULL%1,                            Tamara%Wallington%NULL%1,                            Wayne L.%Gold%NULL%1,                            Barbara%Mederski%NULL%1,                            Karen%Green%NULL%3,                            Donald E.%Low%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Fang%Tang%NULL%1,                            Li‐Qun%Fang%NULL%1,                            Sake J.%De Vlas%NULL%1,                            Huai‐Jian%Ma%NULL%1,                            Jie‐Ping%Zhou%NULL%1,                            Caspar W. N.%Looman%NULL%1,                            Jan Hendrik%Richardus%NULL%1,                            Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%1,                            Allison%McGeer%NULL%2,                            Bonnie%Henry%NULL%2,                            Marianna%Ofner%NULL%2,                            David%Rose%NULL%1,                            Tammy%Hlywka%NULL%1,                            Joanne%Levie%NULL%1,                            Jane%McQueen%NULL%1,                            Stephanie%Smith%NULL%1,                            Lorraine%Moss%NULL%1,                            Andrew%Smith%NULL%1,                            Karen%Green%NULL%0,                            Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%1,                            Altynay%Shigayeva%NULL%1,                            Allison%McGeer%NULL%0,                            Erika%Bontovics%NULL%1,                            Martin%Chapman%NULL%1,                            Denise%Gravel%NULL%1,                            Bonnie%Henry%NULL%0,                            Stephen%Lapinsky%NULL%1,                            Mark%Loeb%NULL%1,                            L. Clifford%McDonald%NULL%0,                            Marianna%Ofner%NULL%0,                            Shirley%Paton%NULL%1,                            Donna%Reynolds%NULL%1,                            Damon%Scales%NULL%1,                            Sandy%Shen%NULL%1,                            Andrew%Simor%NULL%1,                            Thomas%Stewart%NULL%1,                            Mary%Vearncombe%NULL%1,                            Dick%Zoutman%NULL%1,                            Karen%Green%NULL%0,                            Joel Mark%Montgomery%NULL%4,                            Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%1,                            Jaehoon%Oh%NULL%1,                            Tae Ho%Lim%NULL%1,                            Hyunggoo%Kang%NULL%1,                            Yeongtak%Song%NULL%1,                            Sanghyun%Lee%NULL%1,                            Abdelouahab%Bellou.%NULL%2,                            Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report the first case of transmission of Panton-Valentine leukocidin–producing Staphylococcus aureus to a physician during the resuscitation of an infant with fatal pneumonia.
+ The physician exhibited numerous furuncles.
+ This case highlights the necessity for health care workers to protect themselves against transmission of infectious diseases from patient to care giver.
+</t>
+  </si>
+  <si>
+    <t>[Martin%Chalumeau%NULL%0, Philippe%Bidet%NULL%1, Gérard%Lina%NULL%1, Mostapha%Mokhtari%NULL%1, Marie-Claude%André%NULL%1, Dominique%Gendrel%NULL%1, Edouard%Bingen%NULL%1, Josette%Raymond%j.raymond@svp.ap-hop-paris.fr%1]</t>
+  </si>
+  <si>
+    <t>The University of Chicago Press</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0, Mi-Yeon%Yeon%NULL%0, Mi-Yeon%Yeon%NULL%0, Jung Wan%Park%NULL%0, Jung Wan%Park%NULL%0, Jee-Young%Hong%NULL%2, Jee-Young%Hong%NULL%0, Ji Woong%Son%NULL%2, Ji Woong%Son%NULL%0]</t>
+  </si>
+  <si>
+    <t>Korean Society of Epidemiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infection of healthcare workers with the severe acute respiratory syndrome–associated coronavirus (SARS-CoV) is thought to occur primarily by either contact or large respiratory droplet transmission.
+ However, infrequent healthcare worker infections occurred despite the use of contact and droplet precautions, particularly during certain aerosol-generating medical procedures.
+ We investigated a possible cluster of SARS-CoV infections in healthcare workers who used contact and droplet precautions during attempted cardiopulmonary resuscitation of a SARS patient.
+ Unlike previously reported instances of transmission during aerosol-generating procedures, the index case-patient was unresponsive, and the intubation procedure was performed quickly and without difficulty.
+ However, before intubation, the patient was ventilated with a bag-valve-mask that may have contributed to aerosolization of SARS-CoV.
+ On the basis of the results of this investigation and previous reports of SARS transmission during aerosol-generating procedures, a systematic approach to the problem is outlined, including the use of the following: 1) administrative controls, 2) environmental engineering controls, 3) personal protective equipment, and 4) quality control.
+</t>
+  </si>
+  <si>
+    <t>[Michael D.%Christian%NULL%0, Mona%Loutfy%NULL%1, L. Clifford%McDonald%NULL%2, Kenneth F.%Martinez%NULL%1, Mariana%Ofner%NULL%1, Tom%Wong%NULL%1, Tamara%Wallington%NULL%1, Wayne L.%Gold%NULL%1, Barbara%Mederski%NULL%1, Karen%Green%NULL%3, Donald E.%Low%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Objective  To evaluate possible severe acute respiratory syndrome (SARS) infection associated risk factors in a SARS affected hospital in Beijing by means of a case control study.
+</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0, Fang%Tang%NULL%2, Li‐Qun%Fang%NULL%1, Sake J.%De Vlas%NULL%1, Huai‐Jian%Ma%NULL%1, Jie‐Ping%Zhou%NULL%1, Caspar W. N.%Looman%NULL%1, Jan Hendrik%Richardus%NULL%1, Wu‐Chun%Cao%NULL%1]</t>
+  </si>
+  <si>
+    <t>Blackwell Publishing Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine factors that predispose or protect healthcare workers from severe acute respiratory syndrome (SARS), we conducted a retrospective cohort study among 43 nurses who worked in two Toronto critical care units with SARS patients.
+ Eight of 32 nurses who entered a SARS patient’s room were infected.
+ The probability of SARS infection was 6% per shift worked.
+ Assisting during intubation, suctioning before intubation, and manipulating the oxygen mask were high-risk activities.
+ Consistently wearing a mask (either surgical or particulate respirator type N95) while caring for a SARS patient was protective for the nurses, and consistent use of the N95 mask was more protective than not wearing a mask.
+ Risk was reduced by consistent use of a surgical mask, but not significantly.
+ Risk was lower with consistent use of a N95 mask than with consistent use of a surgical mask.
+ We conclude that activities related to intubation increase SARS risk and use of a mask (particularly a N95 mask) is protective.
+</t>
+  </si>
+  <si>
+    <t>[Mark%Loeb%NULL%0, Allison%McGeer%NULL%2, Bonnie%Henry%NULL%2, Marianna%Ofner%NULL%2, David%Rose%NULL%1, Tammy%Hlywka%NULL%1, Joanne%Levie%NULL%1, Jane%McQueen%NULL%1, Stephanie%Smith%NULL%1, Lorraine%Moss%NULL%1, Andrew%Smith%NULL%1, Karen%Green%NULL%0, Stephen D.%Walter%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Janet%Raboud%NULL%0, Altynay%Shigayeva%NULL%1, Allison%McGeer%NULL%0, Erika%Bontovics%NULL%1, Martin%Chapman%NULL%1, Denise%Gravel%NULL%1, Bonnie%Henry%NULL%0, Stephen%Lapinsky%NULL%1, Mark%Loeb%NULL%0, L. Clifford%McDonald%NULL%0, Marianna%Ofner%NULL%0, Shirley%Paton%NULL%1, Donna%Reynolds%NULL%1, Damon%Scales%NULL%1, Sandy%Shen%NULL%1, Andrew%Simor%NULL%1, Thomas%Stewart%NULL%1, Mary%Vearncombe%NULL%1, Dick%Zoutman%NULL%1, Karen%Green%NULL%0, Joel Mark%Montgomery%NULL%4, Joel Mark%Montgomery%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Hyungoo%Shin%NULL%0, Jaehoon%Oh%NULL%1, Tae Ho%Lim%NULL%1, Hyunggoo%Kang%NULL%1, Yeongtak%Song%NULL%1, Sanghyun%Lee%NULL%1, Abdelouahab%Bellou.%NULL%2, Abdelouahab%Bellou.%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1509,10 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1412,10 +1524,10 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
@@ -1432,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1444,10 +1556,10 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4">
@@ -1461,10 +1573,10 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1476,10 +1588,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5">
@@ -1490,28 +1602,28 @@
         <v>42156.0</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1522,25 +1634,25 @@
         <v>42290.0</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -1557,10 +1669,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1572,10 +1684,10 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
@@ -1589,10 +1701,10 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1604,10 +1716,10 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1736,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1636,10 +1748,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
@@ -1650,28 +1762,28 @@
         <v>41306.0</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1800,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -1700,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
@@ -1714,7 +1826,7 @@
         <v>39630.0</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1723,16 +1835,16 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>68</v>
